--- a/biology/Médecine/Sasha_Andres/Sasha_Andres.xlsx
+++ b/biology/Médecine/Sasha_Andres/Sasha_Andres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sasha Andres, née à Metz, est chanteuse, comédienne et auteure-compositrice-interprète française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Metz, où sont restés ses parents et sa sœur, elle fait ses études à Metz et Nancy.
 Elle poursuivra parallèlement sa passion pour la musique et le théâtre et de nombreuses formations et recherches sur l'énergie et le toucher thérapeutique qui l'amèneront à travailler avec François Jacquemot pour La Forge. Elle travaillera pendant une quinzaine d'années au sein de structures spécialisées avec des populations « dépendantes » (polyhandicapés, personnes à troubles autistiques, personnes âgées...) tout en continuant à passer d'un univers à un autre pour ne jamais cesser ni la musique ni le théâtre.
@@ -552,18 +566,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-1995 : Luc et Marie, court métrage de Philippe Boon et Laurent Brandenbourger.
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1995 : Luc et Marie, court métrage de Philippe Boon et Laurent Brandenbourger.
 1996 : Le Contre-ciel, court métrage de Siegrid Alnoy.
 1999 : Nos enfants, court métrage de Siegrid Alnoy.
 2001 : Mon meilleur amour, court métrage de François Favrat – Jeanne.
 2003 : Elle est des nôtres (titre international : For She’s a Jolly Good Fellow), de Siegrid Alnoy – Christine Blanc.
 2010 : Les Mains libres de Brigitte Sy : Marie-Pierre
-2011 : Bye bye Blondie, long métrage de Virginie Despentes
-Musique de film
-2001 : Notre amnésie, court métrage de Siegrid Alnoy.
-Télévision
-2007 : Nos familles de Siegrid Alnoy : Laure</t>
+2011 : Bye bye Blondie, long métrage de Virginie Despentes</t>
         </is>
       </c>
     </row>
@@ -588,10 +603,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Musique de film</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2001 : Notre amnésie, court métrage de Siegrid Alnoy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sasha_Andres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sasha_Andres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2007 : Nos familles de Siegrid Alnoy : Laure</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sasha_Andres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sasha_Andres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2004 : Prix Lumière du meilleur espoir féminin, pour son rôle Christine Blanc, dans Elle est des nôtres (2003), de Siegrid Alnoy.</t>
         </is>
